--- a/草稿/歌曲时间轴.xlsx
+++ b/草稿/歌曲时间轴.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E36D4C-A297-4313-BC87-161623DD4F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>胡蝶のワルツ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -458,11 +459,15 @@
     <t>78s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>27s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,7 +712,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,6 +787,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -817,6 +839,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,21 +1031,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="30.5" customWidth="1"/>
-    <col min="13" max="13" width="33.75" customWidth="1"/>
-    <col min="14" max="14" width="32.25" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" customWidth="1"/>
+    <col min="13" max="13" width="33.77734375" customWidth="1"/>
+    <col min="14" max="14" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -1052,7 +1091,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1061,7 +1100,9 @@
       <c r="E4" s="2">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="I4" s="8">
         <v>1.5277777777777777E-2</v>
@@ -1077,7 +1118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>4.6527777777777779E-2</v>
       </c>
@@ -1098,7 +1139,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>5.6250000000000001E-2</v>
       </c>
@@ -1123,7 +1164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -1146,7 +1187,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>0.10833333333333334</v>
       </c>
@@ -1173,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1192,7 +1233,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -1213,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1277,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1261,7 +1302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -1284,7 +1325,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>6.7361111111111108E-2</v>
       </c>
@@ -1309,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>8.1944444444444445E-2</v>
       </c>
@@ -1330,7 +1371,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>9.7916666666666666E-2</v>
       </c>
@@ -1355,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0.10694444444444444</v>
       </c>
@@ -1375,7 +1416,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>0.12013888888888889</v>
       </c>
@@ -1396,7 +1437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>0.13333333333333333</v>
       </c>
@@ -1413,7 +1454,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>0.15625</v>
       </c>
@@ -1431,7 +1472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>0.14027777777777778</v>
       </c>
@@ -1447,7 +1488,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1459,14 +1500,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L23" s="14" t="s">
         <v>32</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L24" s="14"/>
       <c r="M24" s="15" t="s">
         <v>50</v>
@@ -1475,14 +1516,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L26" s="14"/>
       <c r="M26" s="15" t="s">
         <v>51</v>
@@ -1491,14 +1532,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="22.8" x14ac:dyDescent="0.25">
       <c r="L28" s="15"/>
       <c r="M28" s="15" t="s">
         <v>52</v>
@@ -1507,14 +1548,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
         <v>53</v>
@@ -1523,14 +1564,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L31" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L32" s="15"/>
       <c r="M32" s="22" t="s">
         <v>54</v>
@@ -1539,14 +1580,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:14" ht="22.8" x14ac:dyDescent="0.25">
       <c r="L33" s="15" t="s">
         <v>37</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L34" s="15"/>
       <c r="M34" s="22" t="s">
         <v>55</v>
@@ -1555,73 +1596,73 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L35" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L36" s="15"/>
       <c r="M36" s="22" t="s">
         <v>56</v>
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L37" s="15" t="s">
         <v>39</v>
       </c>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L38" s="15"/>
       <c r="M38" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L39" s="18"/>
       <c r="M39" s="22"/>
     </row>
-    <row r="40" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
       <c r="M40" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L41" s="10"/>
       <c r="M41" s="22"/>
     </row>
-    <row r="42" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L42" s="10"/>
       <c r="M42" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L43" s="10"/>
       <c r="M43" s="22"/>
     </row>
-    <row r="44" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L44" s="10"/>
       <c r="M44" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L45" s="10"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L46" s="10"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L47" s="18"/>
     </row>
-    <row r="48" spans="12:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L48" s="25" t="s">
         <v>72</v>
       </c>
@@ -1629,11 +1670,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
     </row>
-    <row r="50" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L50" s="25" t="s">
         <v>73</v>
       </c>
@@ -1641,11 +1682,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L52" s="25" t="s">
         <v>74</v>
       </c>
@@ -1653,11 +1694,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L54" s="27" t="s">
         <v>75</v>
       </c>
@@ -1665,11 +1706,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
     </row>
-    <row r="56" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L56" s="27" t="s">
         <v>76</v>
       </c>
@@ -1677,11 +1718,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
     </row>
-    <row r="58" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L58" s="27" t="s">
         <v>77</v>
       </c>
@@ -1689,11 +1730,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
     </row>
-    <row r="60" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L60" s="27" t="s">
         <v>99</v>
       </c>
@@ -1701,11 +1742,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
     </row>
-    <row r="62" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L62" s="29" t="s">
         <v>98</v>
       </c>
@@ -1713,12 +1754,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J63" s="30"/>
       <c r="L63" s="27"/>
       <c r="M63" s="28"/>
     </row>
-    <row r="64" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="10:13" x14ac:dyDescent="0.25">
       <c r="L64" s="33" t="s">
         <v>78</v>
       </c>
@@ -1726,11 +1767,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
     </row>
-    <row r="66" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L66" s="33" t="s">
         <v>79</v>
       </c>
@@ -1738,11 +1779,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
     </row>
-    <row r="68" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L68" s="33" t="s">
         <v>80</v>
       </c>
@@ -1750,11 +1791,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
     </row>
-    <row r="70" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L70" s="33" t="s">
         <v>81</v>
       </c>
@@ -1762,102 +1803,102 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L72" s="18"/>
       <c r="M72" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M73" s="32"/>
     </row>
-    <row r="74" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M74" s="31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M75" s="32"/>
     </row>
-    <row r="76" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M76" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M77" s="32"/>
     </row>
-    <row r="78" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M78" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M79" s="32"/>
     </row>
-    <row r="80" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M80" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M81" s="32"/>
     </row>
-    <row r="82" spans="13:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M82" s="31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M83" s="35"/>
     </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L119" s="10"/>
     </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L122" s="11"/>
     </row>
   </sheetData>
